--- a/찌꺼기.xlsx
+++ b/찌꺼기.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EB620-8E78-4507-8B87-0B1BBD66667F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>생년월일</t>
   </si>
@@ -109,18 +103,114 @@
     <t>정병례</t>
   </si>
   <si>
+    <t>김제환</t>
+  </si>
+  <si>
+    <t>이중권</t>
+  </si>
+  <si>
+    <t>김영애</t>
+  </si>
+  <si>
+    <t>김점례</t>
+  </si>
+  <si>
+    <t>이기철</t>
+  </si>
+  <si>
+    <t>진명희</t>
+  </si>
+  <si>
+    <t>방영희</t>
+  </si>
+  <si>
+    <t>신영식</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>황병기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이기용 </t>
+  </si>
+  <si>
+    <t>김정희</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이기열 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서윤기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">김희영 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">최재복 </t>
+  </si>
+  <si>
+    <t>김점자</t>
+  </si>
+  <si>
+    <t>안호순</t>
+  </si>
+  <si>
+    <t>김정순</t>
+  </si>
+  <si>
+    <t>박순자</t>
+  </si>
+  <si>
+    <t>김정래</t>
+  </si>
+  <si>
+    <t>전정자</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김미정</t>
+  </si>
+  <si>
+    <t>박윤철</t>
+  </si>
+  <si>
+    <t>이상호</t>
+  </si>
+  <si>
+    <t>＊이해란</t>
+  </si>
+  <si>
+    <t>안명옥</t>
+  </si>
+  <si>
     <t>CJ</t>
+  </si>
+  <si>
+    <t>헛개</t>
+  </si>
+  <si>
+    <t>산수유</t>
+  </si>
+  <si>
+    <t>허니유자</t>
+  </si>
+  <si>
+    <t>수해</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,15 +218,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -175,30 +258,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,27 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,24 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,16 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>711020</v>
       </c>
@@ -557,10 +595,10 @@
         <v>20240718</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>470103</v>
       </c>
@@ -574,10 +612,10 @@
         <v>20240719</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>411225</v>
       </c>
@@ -591,10 +629,10 @@
         <v>20240722</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>780203</v>
       </c>
@@ -608,10 +646,10 @@
         <v>20240722</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>720803</v>
       </c>
@@ -625,10 +663,10 @@
         <v>20240722</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>360823</v>
       </c>
@@ -642,10 +680,10 @@
         <v>20240722</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>560306</v>
       </c>
@@ -659,10 +697,10 @@
         <v>20240723</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>470103</v>
       </c>
@@ -676,10 +714,10 @@
         <v>20240723</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>770103</v>
       </c>
@@ -693,10 +731,10 @@
         <v>20240726</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>360403</v>
       </c>
@@ -710,10 +748,10 @@
         <v>20240726</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>350703</v>
       </c>
@@ -727,10 +765,10 @@
         <v>20240726</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>621003</v>
       </c>
@@ -744,10 +782,10 @@
         <v>20240729</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>570719</v>
       </c>
@@ -761,10 +799,10 @@
         <v>20240730</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>510120</v>
       </c>
@@ -778,10 +816,10 @@
         <v>20240730</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>720103</v>
       </c>
@@ -795,10 +833,10 @@
         <v>20240731</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>741202</v>
       </c>
@@ -812,10 +850,10 @@
         <v>20240731</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>560703</v>
       </c>
@@ -829,10 +867,10 @@
         <v>20240801</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>600703</v>
       </c>
@@ -846,10 +884,10 @@
         <v>20240704</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>641112</v>
       </c>
@@ -863,10 +901,10 @@
         <v>20240704</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>320503</v>
       </c>
@@ -880,10 +918,10 @@
         <v>20240816</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>420302</v>
       </c>
@@ -897,10 +935,10 @@
         <v>20240708</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>601105</v>
       </c>
@@ -914,10 +952,10 @@
         <v>20240709</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>841103</v>
       </c>
@@ -931,10 +969,10 @@
         <v>20240710</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>390303</v>
       </c>
@@ -948,12 +986,741 @@
         <v>20240711</v>
       </c>
       <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>380303</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>560703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>350303</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>531003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45547</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>381112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45547</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>670103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45547</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>610703</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45547</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>531003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45548</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>640809</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45548</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>680312</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45555</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>981214</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45555</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>631203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45555</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>440427</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>711220</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>400820</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>421119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>460815</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>490825</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>610103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>581125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>380303</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>560703</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>350303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45544</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>370607</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45545</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>370607</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45548</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>581125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>411103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45548</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>471203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45554</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>520903</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45561</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>810701</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45569</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>460503</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45569</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>460503</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45569</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>810701</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45572</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>460503</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45572</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>600703</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45575</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>411103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45581</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>440707</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45581</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>891110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45541</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>891110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45548</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>320503</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>581125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45558</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>670609</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45567</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>670609</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45572</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>